--- a/outcome/appendix/data/Epidemic/HFMD.xlsx
+++ b/outcome/appendix/data/Epidemic/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-144122.307421427</v>
+        <v>-65989.8900122636</v>
       </c>
       <c r="D4" t="n">
-        <v>-278211.511028961</v>
+        <v>-113313.936254694</v>
       </c>
       <c r="E4" t="n">
-        <v>362478.762943166</v>
+        <v>297905.677930427</v>
       </c>
       <c r="F4" t="n">
-        <v>496567.966550701</v>
+        <v>346789.301654904</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-26300115.9841689</v>
+        <v>-5298682.30120632</v>
       </c>
       <c r="D5" t="n">
-        <v>-40363177.6946418</v>
+        <v>-8244256.5766912</v>
       </c>
       <c r="E5" t="n">
-        <v>26831395.900868</v>
+        <v>5829962.21790543</v>
       </c>
       <c r="F5" t="n">
-        <v>40894457.6113409</v>
+        <v>8775536.4933903</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-1680857913.47307</v>
+        <v>-196931656.93394</v>
       </c>
       <c r="D6" t="n">
-        <v>-2570855321.91869</v>
+        <v>-301385956.248589</v>
       </c>
       <c r="E6" t="n">
-        <v>1681632336.3753</v>
+        <v>197706079.836176</v>
       </c>
       <c r="F6" t="n">
-        <v>2571629744.82093</v>
+        <v>302160379.150825</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-57986264330.6272</v>
+        <v>-3538343958.97722</v>
       </c>
       <c r="D7" t="n">
-        <v>-88682535891.4786</v>
+        <v>-5411627540.48356</v>
       </c>
       <c r="E7" t="n">
-        <v>57987010254.8871</v>
+        <v>3539089883.23709</v>
       </c>
       <c r="F7" t="n">
-        <v>88683281815.7384</v>
+        <v>5412373464.74343</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-1879138596710.88</v>
+        <v>-50912700014.322</v>
       </c>
       <c r="D8" t="n">
-        <v>-2873894641636.41</v>
+        <v>-77864415879.5707</v>
       </c>
       <c r="E8" t="n">
-        <v>1879139203088.1</v>
+        <v>50913306391.5373</v>
       </c>
       <c r="F8" t="n">
-        <v>2873895248013.62</v>
+        <v>77865022256.786</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-40102140846578.9</v>
+        <v>-414558528218.219</v>
       </c>
       <c r="D9" t="n">
-        <v>-61330931964650.3</v>
+        <v>-634012645293.833</v>
       </c>
       <c r="E9" t="n">
-        <v>40102141180770.2</v>
+        <v>414558862409.461</v>
       </c>
       <c r="F9" t="n">
-        <v>61330932298841.6</v>
+        <v>634012979485.075</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-1786492734032060</v>
+        <v>-6279493472852.65</v>
       </c>
       <c r="D10" t="n">
-        <v>-2732204861357449</v>
+        <v>-9603656610252.3</v>
       </c>
       <c r="E10" t="n">
-        <v>1786492734373670</v>
+        <v>6279493814462.11</v>
       </c>
       <c r="F10" t="n">
-        <v>2732204861699058</v>
+        <v>9603656951861.76</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-66300216337295824</v>
+        <v>-83445161852275.4</v>
       </c>
       <c r="D11" t="n">
-        <v>-101397430803505408</v>
+        <v>-127618362327741</v>
       </c>
       <c r="E11" t="n">
-        <v>66300216337646000</v>
+        <v>83445162202444.9</v>
       </c>
       <c r="F11" t="n">
-        <v>101397430803855584</v>
+        <v>127618362677911</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-2055267762623971584</v>
+        <v>-790933513450404</v>
       </c>
       <c r="D12" t="n">
-        <v>-3143260795454202368</v>
+        <v>-1209628424096064</v>
       </c>
       <c r="E12" t="n">
-        <v>2055267762624263424</v>
+        <v>790933513742382</v>
       </c>
       <c r="F12" t="n">
-        <v>3143260795454494208</v>
+        <v>1209628424388041</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-52506761458640207872</v>
+        <v>-5129124850368814</v>
       </c>
       <c r="D13" t="n">
-        <v>-80302161981315235840</v>
+        <v>-7844319533666632</v>
       </c>
       <c r="E13" t="n">
-        <v>52506761458640420864</v>
+        <v>5129124850576056</v>
       </c>
       <c r="F13" t="n">
-        <v>80302161981315432448</v>
+        <v>7844319533873874</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-999564123394565603328</v>
+        <v>-37393133125643232</v>
       </c>
       <c r="D14" t="n">
-        <v>-1528701407546692599808</v>
+        <v>-57187862092982336</v>
       </c>
       <c r="E14" t="n">
-        <v>999564123394565603328</v>
+        <v>37393133125754848</v>
       </c>
       <c r="F14" t="n">
-        <v>1528701407546692599808</v>
+        <v>57187862093093952</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-19573371824606476763136</v>
+        <v>-292834820283723072</v>
       </c>
       <c r="D15" t="n">
-        <v>-29934888976501826387968</v>
+        <v>-447852210247566528</v>
       </c>
       <c r="E15" t="n">
-        <v>19573371824606476763136</v>
+        <v>292834820283788352</v>
       </c>
       <c r="F15" t="n">
-        <v>29934888976501826387968</v>
+        <v>447852210247631808</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-2222032088329771590615040</v>
+        <v>-15012147617038100480</v>
       </c>
       <c r="D16" t="n">
-        <v>-3398304822613951148720128</v>
+        <v>-22959098526394449920</v>
       </c>
       <c r="E16" t="n">
-        <v>2222032088329771590615040</v>
+        <v>15012147617038321664</v>
       </c>
       <c r="F16" t="n">
-        <v>3398304822613951148720128</v>
+        <v>22959098526394671104</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-204895561167841019339735040</v>
+        <v>-598144396003940630528</v>
       </c>
       <c r="D17" t="n">
-        <v>-313360719363980894540922880</v>
+        <v>-914782912558025801728</v>
       </c>
       <c r="E17" t="n">
-        <v>204895561167841019339735040</v>
+        <v>598144396003941154816</v>
       </c>
       <c r="F17" t="n">
-        <v>313360719363980894540922880</v>
+        <v>914782912558026326016</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-11688321246934286926012743680</v>
+        <v>-10216011940215505551360</v>
       </c>
       <c r="D18" t="n">
-        <v>-17875744760992389883607646208</v>
+        <v>-15624041986905679593472</v>
       </c>
       <c r="E18" t="n">
-        <v>11688321246934286926012743680</v>
+        <v>10216011940215505551360</v>
       </c>
       <c r="F18" t="n">
-        <v>17875744760992389883607646208</v>
+        <v>15624041986905679593472</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-312392028002337166181519065088</v>
+        <v>-93941357440299486412800</v>
       </c>
       <c r="D19" t="n">
-        <v>-477762378357221297053224665088</v>
+        <v>-143670908133569739096064</v>
       </c>
       <c r="E19" t="n">
-        <v>312392028002337166181519065088</v>
+        <v>93941357440299486412800</v>
       </c>
       <c r="F19" t="n">
-        <v>477762378357221297053224665088</v>
+        <v>143670908133569739096064</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-9011490034916752965581995507712</v>
+        <v>-1499793204240670542266368</v>
       </c>
       <c r="D20" t="n">
-        <v>-13781884701590452369718048194560</v>
+        <v>-2293735768112045584547840</v>
       </c>
       <c r="E20" t="n">
-        <v>9011490034916752965581995507712</v>
+        <v>1499793204240670542266368</v>
       </c>
       <c r="F20" t="n">
-        <v>13781884701590452369718048194560</v>
+        <v>2293735768112045584547840</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-195372832976036529795419718287360</v>
+        <v>-11915884921527948313362432</v>
       </c>
       <c r="D21" t="n">
-        <v>-298796963372961038581985930379264</v>
+        <v>-18223773368178112064389120</v>
       </c>
       <c r="E21" t="n">
-        <v>195372832976036529795419718287360</v>
+        <v>11915884921527948313362432</v>
       </c>
       <c r="F21" t="n">
-        <v>298796963372961038581985930379264</v>
+        <v>18223773368178112064389120</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-4716494451786977033178155570954240</v>
+        <v>-124206983043856328179056640</v>
       </c>
       <c r="D22" t="n">
-        <v>-7213255796583663897261285109137408</v>
+        <v>-189958188136490771171770368</v>
       </c>
       <c r="E22" t="n">
-        <v>4716494451786977033178155570954240</v>
+        <v>124206983043856328179056640</v>
       </c>
       <c r="F22" t="n">
-        <v>7213255796583663897261285109137408</v>
+        <v>189958188136490771171770368</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-170933663763873651713640247641243648</v>
+        <v>-697900890149983479383719936</v>
       </c>
       <c r="D23" t="n">
-        <v>-261420479464126583653267469125025792</v>
+        <v>-1067347304820414235092713472</v>
       </c>
       <c r="E23" t="n">
-        <v>170933663763873651713640247641243648</v>
+        <v>697900890149983479383719936</v>
       </c>
       <c r="F23" t="n">
-        <v>261420479464126583653267469125025792</v>
+        <v>1067347304820414235092713472</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-5287072754587998459320121528395235328</v>
+        <v>-4192752107008454139322564608</v>
       </c>
       <c r="D24" t="n">
-        <v>-8085880007670136085490089266815959040</v>
+        <v>-6412261002036911705595838464</v>
       </c>
       <c r="E24" t="n">
-        <v>5287072754587998459320121528395235328</v>
+        <v>4192752107008454139322564608</v>
       </c>
       <c r="F24" t="n">
-        <v>8085880007670136085490089266815959040</v>
+        <v>6412261002036911705595838464</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-107378406474957979202197467330349367296</v>
+        <v>-10290667792982006913090715648</v>
       </c>
       <c r="D25" t="n">
-        <v>-164221101254544695141351995641826377728</v>
+        <v>-15738218260878149626181451776</v>
       </c>
       <c r="E25" t="n">
-        <v>107378406474957979202197467330349367296</v>
+        <v>10290667792982006913090715648</v>
       </c>
       <c r="F25" t="n">
-        <v>164221101254544695141351995641826377728</v>
+        <v>15738218260878149626181451776</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-1789290255283736292951660751436023595008</v>
+        <v>-37401165843885802681897320448</v>
       </c>
       <c r="D26" t="n">
-        <v>-2736483300813815499373065544339793379328</v>
+        <v>-57200147075373070384222961664</v>
       </c>
       <c r="E26" t="n">
-        <v>1789290255283736292951660751436023595008</v>
+        <v>37401165843885802681897320448</v>
       </c>
       <c r="F26" t="n">
-        <v>2736483300813815499373065544339793379328</v>
+        <v>57200147075373070384222961664</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-26887041647103757158335667744992397361152</v>
+        <v>-446787821710705611074523103232</v>
       </c>
       <c r="D27" t="n">
-        <v>-41120181735923962280068775493989883183104</v>
+        <v>-683303007719364348755480412160</v>
       </c>
       <c r="E27" t="n">
-        <v>26887041647103757158335667744992397361152</v>
+        <v>446787821710705611074523103232</v>
       </c>
       <c r="F27" t="n">
-        <v>41120181735923962280068775493989883183104</v>
+        <v>683303007719364348755480412160</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-3035645076051830951105772919587986848350208</v>
+        <v>-6666638611891943630899723108352</v>
       </c>
       <c r="D28" t="n">
-        <v>-4642618509368811202805126928360189884104704</v>
+        <v>-10195743915852263487665256529920</v>
       </c>
       <c r="E28" t="n">
-        <v>3035645076051830951105772919587986848350208</v>
+        <v>6666638611891943630899723108352</v>
       </c>
       <c r="F28" t="n">
-        <v>4642618509368811202805126928360189884104704</v>
+        <v>10195743915852263487665256529920</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-303866829840708181732198489909644428056723456</v>
+        <v>-185387879518946307317314728493056</v>
       </c>
       <c r="D29" t="n">
-        <v>-464724212896622472613436148792343737080479744</v>
+        <v>-283526294841656861907828017725440</v>
       </c>
       <c r="E29" t="n">
-        <v>303866829840708181732198489909644428056723456</v>
+        <v>185387879518946307317314728493056</v>
       </c>
       <c r="F29" t="n">
-        <v>464724212896622472613436148792343737080479744</v>
+        <v>283526294841656861907828017725440</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-14788844740324862117469309890465608801106001920</v>
+        <v>-1993205216610749447427500384714752</v>
       </c>
       <c r="D30" t="n">
-        <v>-22617586247240684882770117285615362879566905344</v>
+        <v>-3048344322137591779534597842272256</v>
       </c>
       <c r="E30" t="n">
-        <v>14788844740324862117469309890465608801106001920</v>
+        <v>1993205216610749447427500384714752</v>
       </c>
       <c r="F30" t="n">
-        <v>22617586247240684882770117285615362879566905344</v>
+        <v>3048344322137591779534597842272256</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-366006125247290419934481473762847482992912236544</v>
+        <v>-13861752945689164309986311904690176</v>
       </c>
       <c r="D31" t="n">
-        <v>-559758064281167290980714533953786723520630226944</v>
+        <v>-21199721701871102794670988901482496</v>
       </c>
       <c r="E31" t="n">
-        <v>366006125247290419934481473762847482992912236544</v>
+        <v>13861752945689164309986311904690176</v>
       </c>
       <c r="F31" t="n">
-        <v>559758064281167290980714533953786723520630226944</v>
+        <v>21199721701871102794670988901482496</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-10086129489994567810151301012834068443682251472896</v>
+        <v>-364886458756146382599769759894470656</v>
       </c>
       <c r="D32" t="n">
-        <v>-15425403920751333182457040981122474422556996665344</v>
+        <v>-558045682152863227187919001936199680</v>
       </c>
       <c r="E32" t="n">
-        <v>10086129489994567810151301012834068443682251472896</v>
+        <v>364886458756146382599769759894470656</v>
       </c>
       <c r="F32" t="n">
-        <v>15425403920751333182457040981122474422556996665344</v>
+        <v>558045682152863227187919001936199680</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-147216041353266975656433086350360745147292564062208</v>
+        <v>-4057009049527372425929892900332634112</v>
       </c>
       <c r="D33" t="n">
-        <v>-225147506160898785728811696220568765500235704172544</v>
+        <v>-6204659910541845641980182736154918912</v>
       </c>
       <c r="E33" t="n">
-        <v>147216041353266975656433086350360745147292564062208</v>
+        <v>4057009049527372425929892900332634112</v>
       </c>
       <c r="F33" t="n">
-        <v>225147506160898785728811696220568765500235704172544</v>
+        <v>6204659910541845641980182736154918912</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-3119340608738429147349619725185193599458600275673088</v>
+        <v>-72872832714218043199570142968462442496</v>
       </c>
       <c r="D34" t="n">
-        <v>-4770619780751846589283226921203279003427492352491520</v>
+        <v>-111449380119624103413565599592185069568</v>
       </c>
       <c r="E34" t="n">
-        <v>3119340608738429147349619725185193599458600275673088</v>
+        <v>72872832714218043199570142968462442496</v>
       </c>
       <c r="F34" t="n">
-        <v>4770619780751846589283226921203279003427492352491520</v>
+        <v>111449380119624103413565599592185069568</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-87519843716897608493157777744622728093950475839209472</v>
+        <v>-507490250139767204729038006943356026880</v>
       </c>
       <c r="D35" t="n">
-        <v>-133850050383886490503628665196802260986099845048565760</v>
+        <v>-776139360694768924273082856872773419008</v>
       </c>
       <c r="E35" t="n">
-        <v>87519843716897608493157777744622728093950475839209472</v>
+        <v>507490250139767204729038006943356026880</v>
       </c>
       <c r="F35" t="n">
-        <v>133850050383886490503628665196802260986099845048565760</v>
+        <v>776139360694768924273082856872773419008</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-1914594492253553125282275793251654536213122447063384064</v>
+        <v>-4466564521538591994937118303789332299776</v>
       </c>
       <c r="D36" t="n">
-        <v>-2928119594018098543817270750337902984043838748619702272</v>
+        <v>-6831020953198896259012584918009910394880</v>
       </c>
       <c r="E36" t="n">
-        <v>1914594492253553125282275793251654536213122447063384064</v>
+        <v>4466564521538591994937118303789332299776</v>
       </c>
       <c r="F36" t="n">
-        <v>2928119594018098543817270750337902984043838748619702272</v>
+        <v>6831020953198896259012584918009910394880</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>104766.96074782</v>
       </c>
       <c r="C37" t="n">
-        <v>-29118758241693888235441900812599895415520983070925651968</v>
+        <v>-6080860809012227773993443734570227728384</v>
       </c>
       <c r="D37" t="n">
-        <v>-44533297732733853111008568432633208881313761171270008832</v>
+        <v>-9299874075375454113639477844050276515840</v>
       </c>
       <c r="E37" t="n">
-        <v>29118758241693888235441900812599895415520983070925651968</v>
+        <v>6080860809012227773993443734570227728384</v>
       </c>
       <c r="F37" t="n">
-        <v>44533297732733853111008568432633208881313761171270008832</v>
+        <v>9299874075375454113639477844050276515840</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>65198.7757235088</v>
       </c>
       <c r="C38" t="n">
-        <v>-421560506892769226946184309921310118406194919158119923712</v>
+        <v>-35948248217709855937072733037708888244224</v>
       </c>
       <c r="D38" t="n">
-        <v>-644721159123364008963321482959866737335160665551679782912</v>
+        <v>-54978101317426405612585784199186105761792</v>
       </c>
       <c r="E38" t="n">
-        <v>421560506892769226946184309921310118406194919158119923712</v>
+        <v>35948248217709855937072733037708888244224</v>
       </c>
       <c r="F38" t="n">
-        <v>644721159123364008963321482959866737335160665551679782912</v>
+        <v>54978101317426405612585784199186105761792</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>43331.9280419069</v>
       </c>
       <c r="C39" t="n">
-        <v>-4648292205241578254324573988469745913982605338726683901952</v>
+        <v>-341728420645608852946471431154966137405440</v>
       </c>
       <c r="D39" t="n">
-        <v>-7108949461600647636753602550679617834892038001628394029056</v>
+        <v>-522628519184495892432632143709388813631488</v>
       </c>
       <c r="E39" t="n">
-        <v>4648292205241578254324573988469745913982605338726683901952</v>
+        <v>341728420645608852946471431154966137405440</v>
       </c>
       <c r="F39" t="n">
-        <v>7108949461600647636753602550679617834892038001628394029056</v>
+        <v>522628519184495892432632143709388813631488</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>82468.1290881552</v>
       </c>
       <c r="C40" t="n">
-        <v>-449575585511666592503508045195512834330965605699316753629184</v>
+        <v>-10841052628274093580697952699527632110223360</v>
       </c>
       <c r="D40" t="n">
-        <v>-687566524533036975080827800266242466414025881701663159353344</v>
+        <v>-16579959228477127820317600545343177196830720</v>
       </c>
       <c r="E40" t="n">
-        <v>449575585511666592503508045195512834330965605699316753629184</v>
+        <v>10841052628274093580697952699527632110223360</v>
       </c>
       <c r="F40" t="n">
-        <v>687566524533036975080827800266242466414025881701663159353344</v>
+        <v>16579959228477127820317600545343177196830720</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/Epidemic/HFMD.xlsx
+++ b/outcome/appendix/data/Epidemic/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-65989.8900122636</v>
+        <v>-140467.018350127</v>
       </c>
       <c r="D4" t="n">
-        <v>-113313.936254694</v>
+        <v>-272621.228807436</v>
       </c>
       <c r="E4" t="n">
-        <v>297905.677930427</v>
+        <v>358823.473871866</v>
       </c>
       <c r="F4" t="n">
-        <v>346789.301654904</v>
+        <v>490977.684329176</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-5298682.30120632</v>
+        <v>-23329152.826475</v>
       </c>
       <c r="D5" t="n">
-        <v>-8244256.5766912</v>
+        <v>-35819481.6428945</v>
       </c>
       <c r="E5" t="n">
-        <v>5829962.21790543</v>
+        <v>23860432.7431741</v>
       </c>
       <c r="F5" t="n">
-        <v>8775536.4933903</v>
+        <v>36350761.5595936</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-196931656.93394</v>
+        <v>-1495730589.49844</v>
       </c>
       <c r="D6" t="n">
-        <v>-301385956.248589</v>
+        <v>-2287727512.39481</v>
       </c>
       <c r="E6" t="n">
-        <v>197706079.836176</v>
+        <v>1496505012.40068</v>
       </c>
       <c r="F6" t="n">
-        <v>302160379.150825</v>
+        <v>2288501935.29704</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-3538343958.97722</v>
+        <v>-53373051014.8152</v>
       </c>
       <c r="D7" t="n">
-        <v>-5411627540.48356</v>
+        <v>-81627234961.664</v>
       </c>
       <c r="E7" t="n">
-        <v>3539089883.23709</v>
+        <v>53373796939.075</v>
       </c>
       <c r="F7" t="n">
-        <v>5412373464.74343</v>
+        <v>81627980885.9239</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-50912700014.322</v>
+        <v>-1538768657621.18</v>
       </c>
       <c r="D8" t="n">
-        <v>-77864415879.5707</v>
+        <v>-2353343740703.75</v>
       </c>
       <c r="E8" t="n">
-        <v>50913306391.5373</v>
+        <v>1538769263998.4</v>
       </c>
       <c r="F8" t="n">
-        <v>77865022256.786</v>
+        <v>2353344347080.96</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-414558528218.219</v>
+        <v>-32031685190524.4</v>
       </c>
       <c r="D9" t="n">
-        <v>-634012645293.833</v>
+        <v>-48988235150907.6</v>
       </c>
       <c r="E9" t="n">
-        <v>414558862409.461</v>
+        <v>32031685524715.7</v>
       </c>
       <c r="F9" t="n">
-        <v>634012979485.075</v>
+        <v>48988235485098.8</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-6279493472852.65</v>
+        <v>-1333025455726991</v>
       </c>
       <c r="D10" t="n">
-        <v>-9603656610252.3</v>
+        <v>-2038686506309717</v>
       </c>
       <c r="E10" t="n">
-        <v>6279493814462.11</v>
+        <v>1333025456068600</v>
       </c>
       <c r="F10" t="n">
-        <v>9603656951861.76</v>
+        <v>2038686506651326</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-83445161852275.4</v>
+        <v>-49282799307828352</v>
       </c>
       <c r="D11" t="n">
-        <v>-127618362327741</v>
+        <v>-75371537359661728</v>
       </c>
       <c r="E11" t="n">
-        <v>83445162202444.9</v>
+        <v>49282799308178528</v>
       </c>
       <c r="F11" t="n">
-        <v>127618362677911</v>
+        <v>75371537360011904</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-790933513450404</v>
+        <v>-1610771510204326400</v>
       </c>
       <c r="D12" t="n">
-        <v>-1209628424096064</v>
+        <v>-2463462440531737088</v>
       </c>
       <c r="E12" t="n">
-        <v>790933513742382</v>
+        <v>1610771510204618240</v>
       </c>
       <c r="F12" t="n">
-        <v>1209628424388041</v>
+        <v>2463462440532028928</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-5129124850368814</v>
+        <v>-45572992512937353216</v>
       </c>
       <c r="D13" t="n">
-        <v>-7844319533666632</v>
+        <v>-69697877474882002944</v>
       </c>
       <c r="E13" t="n">
-        <v>5129124850576056</v>
+        <v>45572992512937566208</v>
       </c>
       <c r="F13" t="n">
-        <v>7844319533873874</v>
+        <v>69697877474882215936</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-37393133125643232</v>
+        <v>-1063038426732572442624</v>
       </c>
       <c r="D14" t="n">
-        <v>-57187862092982336</v>
+        <v>-1625776977372395864064</v>
       </c>
       <c r="E14" t="n">
-        <v>37393133125754848</v>
+        <v>1063038426732572442624</v>
       </c>
       <c r="F14" t="n">
-        <v>57187862093093952</v>
+        <v>1625776977372395864064</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-292834820283723072</v>
+        <v>-22859285741611650121728</v>
       </c>
       <c r="D15" t="n">
-        <v>-447852210247566528</v>
+        <v>-34960260648450322857984</v>
       </c>
       <c r="E15" t="n">
-        <v>292834820283788352</v>
+        <v>22859285741611650121728</v>
       </c>
       <c r="F15" t="n">
-        <v>447852210247631808</v>
+        <v>34960260648450322857984</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-15012147617038100480</v>
+        <v>-3191020142043262831558656</v>
       </c>
       <c r="D16" t="n">
-        <v>-22959098526394449920</v>
+        <v>-4880244166912547707944960</v>
       </c>
       <c r="E16" t="n">
-        <v>15012147617038321664</v>
+        <v>3191020142043262831558656</v>
       </c>
       <c r="F16" t="n">
-        <v>22959098526394671104</v>
+        <v>4880244166912547707944960</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-598144396003940630528</v>
+        <v>-302612244870133334400827392</v>
       </c>
       <c r="D17" t="n">
-        <v>-914782912558025801728</v>
+        <v>-462805490760126215435059200</v>
       </c>
       <c r="E17" t="n">
-        <v>598144396003941154816</v>
+        <v>302612244870133334400827392</v>
       </c>
       <c r="F17" t="n">
-        <v>914782912558026326016</v>
+        <v>462805490760126215435059200</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-10216011940215505551360</v>
+        <v>-19533509366296744399845982208</v>
       </c>
       <c r="D18" t="n">
-        <v>-15624041986905679593472</v>
+        <v>-29873924607433230216884912128</v>
       </c>
       <c r="E18" t="n">
-        <v>10216011940215505551360</v>
+        <v>19533509366296744399845982208</v>
       </c>
       <c r="F18" t="n">
-        <v>15624041986905679593472</v>
+        <v>29873924607433230216884912128</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-93941357440299486412800</v>
+        <v>-640747237028994893653865398272</v>
       </c>
       <c r="D19" t="n">
-        <v>-143670908133569739096064</v>
+        <v>-979938335323014300017769840640</v>
       </c>
       <c r="E19" t="n">
-        <v>93941357440299486412800</v>
+        <v>640747237028994893653865398272</v>
       </c>
       <c r="F19" t="n">
-        <v>143670908133569739096064</v>
+        <v>979938335323014300017769840640</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-1499793204240670542266368</v>
+        <v>-17625381644578679614402423947264</v>
       </c>
       <c r="D20" t="n">
-        <v>-2293735768112045584547840</v>
+        <v>-26955695085486054480926751064064</v>
       </c>
       <c r="E20" t="n">
-        <v>1499793204240670542266368</v>
+        <v>17625381644578679614402423947264</v>
       </c>
       <c r="F20" t="n">
-        <v>2293735768112045584547840</v>
+        <v>26955695085486054480926751064064</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-11915884921527948313362432</v>
+        <v>-289558668268388374456608558678016</v>
       </c>
       <c r="D21" t="n">
-        <v>-18223773368178112064389120</v>
+        <v>-442841768115862108341218771468288</v>
       </c>
       <c r="E21" t="n">
-        <v>11915884921527948313362432</v>
+        <v>289558668268388374456608558678016</v>
       </c>
       <c r="F21" t="n">
-        <v>18223773368178112064389120</v>
+        <v>442841768115862108341218771468288</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-124206983043856328179056640</v>
+        <v>-9999072529142810508166967758684160</v>
       </c>
       <c r="D22" t="n">
-        <v>-189958188136490771171770368</v>
+        <v>-15292261788619921797779138782691328</v>
       </c>
       <c r="E22" t="n">
-        <v>124206983043856328179056640</v>
+        <v>9999072529142810508166967758684160</v>
       </c>
       <c r="F22" t="n">
-        <v>189958188136490771171770368</v>
+        <v>15292261788619921797779138782691328</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-697900890149983479383719936</v>
+        <v>-367926799118312251119425009154523136</v>
       </c>
       <c r="D23" t="n">
-        <v>-1067347304820414235092713472</v>
+        <v>-562695481482675178356129182659903488</v>
       </c>
       <c r="E23" t="n">
-        <v>697900890149983479383719936</v>
+        <v>367926799118312251119425009154523136</v>
       </c>
       <c r="F23" t="n">
-        <v>1067347304820414235092713472</v>
+        <v>562695481482675178356129182659903488</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-4192752107008454139322564608</v>
+        <v>-10738814686869281584081357074696503296</v>
       </c>
       <c r="D24" t="n">
-        <v>-6412261002036911705595838464</v>
+        <v>-16423599790125702164273196422888685568</v>
       </c>
       <c r="E24" t="n">
-        <v>4192752107008454139322564608</v>
+        <v>10738814686869281584081357074696503296</v>
       </c>
       <c r="F24" t="n">
-        <v>6412261002036911705595838464</v>
+        <v>16423599790125702164273196422888685568</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-10290667792982006913090715648</v>
+        <v>-281989967437087624487508153774624473088</v>
       </c>
       <c r="D25" t="n">
-        <v>-15738218260878149626181451776</v>
+        <v>-431266439086628745164362842854039486464</v>
       </c>
       <c r="E25" t="n">
-        <v>10290667792982006913090715648</v>
+        <v>281989967437087624487508153774624473088</v>
       </c>
       <c r="F25" t="n">
-        <v>15738218260878149626181451776</v>
+        <v>431266439086628745164362842854039486464</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-37401165843885802681897320448</v>
+        <v>-6033691692917982115584975402403874471936</v>
       </c>
       <c r="D26" t="n">
-        <v>-57200147075373070384222961664</v>
+        <v>-9227735137534102519027992620864012025856</v>
       </c>
       <c r="E26" t="n">
-        <v>37401165843885802681897320448</v>
+        <v>6033691692917982115584975402403874471936</v>
       </c>
       <c r="F26" t="n">
-        <v>57200147075373070384222961664</v>
+        <v>9227735137534102519027992620864012025856</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-446787821710705611074523103232</v>
+        <v>-97771527436915863681940697286060084822016</v>
       </c>
       <c r="D27" t="n">
-        <v>-683303007719364348755480412160</v>
+        <v>-149528647650156316361254273873762366521344</v>
       </c>
       <c r="E27" t="n">
-        <v>446787821710705611074523103232</v>
+        <v>97771527436915863681940697286060084822016</v>
       </c>
       <c r="F27" t="n">
-        <v>683303007719364348755480412160</v>
+        <v>149528647650156316361254273873762366521344</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-6666638611891943630899723108352</v>
+        <v>-11100929194567569882327170891119433919496192</v>
       </c>
       <c r="D28" t="n">
-        <v>-10195743915852263487665256529920</v>
+        <v>-16977406138968551063692776889935876126146560</v>
       </c>
       <c r="E28" t="n">
-        <v>6666638611891943630899723108352</v>
+        <v>11100929194567569882327170891119433919496192</v>
       </c>
       <c r="F28" t="n">
-        <v>10195743915852263487665256529920</v>
+        <v>16977406138968551063692776889935876126146560</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-185387879518946307317314728493056</v>
+        <v>-1090167055167438182193928082397177111652597760</v>
       </c>
       <c r="D29" t="n">
-        <v>-283526294841656861907828017725440</v>
+        <v>-1667266634216371948447747674696123483315765248</v>
       </c>
       <c r="E29" t="n">
-        <v>185387879518946307317314728493056</v>
+        <v>1090167055167438182193928082397177111652597760</v>
       </c>
       <c r="F29" t="n">
-        <v>283526294841656861907828017725440</v>
+        <v>1667266634216371948447747674696123483315765248</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-1993205216610749447427500384714752</v>
+        <v>-67571130503274290736666467173380239512389550080</v>
       </c>
       <c r="D30" t="n">
-        <v>-3048344322137591779534597842272256</v>
+        <v>-103341126289205379122623998564915319933245587456</v>
       </c>
       <c r="E30" t="n">
-        <v>1993205216610749447427500384714752</v>
+        <v>67571130503274290736666467173380239512389550080</v>
       </c>
       <c r="F30" t="n">
-        <v>3048344322137591779534597842272256</v>
+        <v>103341126289205379122623998564915319933245587456</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-13861752945689164309986311904690176</v>
+        <v>-1986980535786559234378396282201854927337328476160</v>
       </c>
       <c r="D31" t="n">
-        <v>-21199721701871102794670988901482496</v>
+        <v>-3038824494329894459884238921391152551757348864000</v>
       </c>
       <c r="E31" t="n">
-        <v>13861752945689164309986311904690176</v>
+        <v>1986980535786559234378396282201854927337328476160</v>
       </c>
       <c r="F31" t="n">
-        <v>21199721701871102794670988901482496</v>
+        <v>3038824494329894459884238921391152551757348864000</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-364886458756146382599769759894470656</v>
+        <v>-40946373580708513090611971314587609438439895728128</v>
       </c>
       <c r="D32" t="n">
-        <v>-558045682152863227187919001936199680</v>
+        <v>-62622074423987006450683469413619592260024316985344</v>
       </c>
       <c r="E32" t="n">
-        <v>364886458756146382599769759894470656</v>
+        <v>40946373580708513090611971314587609438439895728128</v>
       </c>
       <c r="F32" t="n">
-        <v>558045682152863227187919001936199680</v>
+        <v>62622074423987006450683469413619592260024316985344</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-4057009049527372425929892900332634112</v>
+        <v>-635394832865923943424498420728621493861222902136832</v>
       </c>
       <c r="D33" t="n">
-        <v>-6204659910541845641980182736154918912</v>
+        <v>-971752539548293941676574011943680491765935128969216</v>
       </c>
       <c r="E33" t="n">
-        <v>4057009049527372425929892900332634112</v>
+        <v>635394832865923943424498420728621493861222902136832</v>
       </c>
       <c r="F33" t="n">
-        <v>6204659910541845641980182736154918912</v>
+        <v>971752539548293941676574011943680491765935128969216</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-72872832714218043199570142968462442496</v>
+        <v>-21994635156669767824354456058681885208242764443025408</v>
       </c>
       <c r="D34" t="n">
-        <v>-111449380119624103413565599592185069568</v>
+        <v>-33637891692521954160676193001504969473362448527392768</v>
       </c>
       <c r="E34" t="n">
-        <v>72872832714218043199570142968462442496</v>
+        <v>21994635156669767824354456058681885208242764443025408</v>
       </c>
       <c r="F34" t="n">
-        <v>111449380119624103413565599592185069568</v>
+        <v>33637891692521954160676193001504969473362448527392768</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-507490250139767204729038006943356026880</v>
+        <v>-605830707390710025419310808782252584357375009290715136</v>
       </c>
       <c r="D35" t="n">
-        <v>-776139360694768924273082856872773419008</v>
+        <v>-926538111409994004080595073764380730897486952517337088</v>
       </c>
       <c r="E35" t="n">
-        <v>507490250139767204729038006943356026880</v>
+        <v>605830707390710025419310808782252584357375009290715136</v>
       </c>
       <c r="F35" t="n">
-        <v>776139360694768924273082856872773419008</v>
+        <v>926538111409994004080595073764380730897486952517337088</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-4466564521538591994937118303789332299776</v>
+        <v>-23946360154934498820242788237340410553834259151650291712</v>
       </c>
       <c r="D36" t="n">
-        <v>-6831020953198896259012584918009910394880</v>
+        <v>-36622797495122091495286530892214691207747730794977689600</v>
       </c>
       <c r="E36" t="n">
-        <v>4466564521538591994937118303789332299776</v>
+        <v>23946360154934498820242788237340410553834259151650291712</v>
       </c>
       <c r="F36" t="n">
-        <v>6831020953198896259012584918009910394880</v>
+        <v>36622797495122091495286530892214691207747730794977689600</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>104766.96074782</v>
       </c>
       <c r="C37" t="n">
-        <v>-6080860809012227773993443734570227728384</v>
+        <v>-490547460001343842762920559456375233782216278855825489920</v>
       </c>
       <c r="D37" t="n">
-        <v>-9299874075375454113639477844050276515840</v>
+        <v>-750227599231765641594401052422536190073579886948676272128</v>
       </c>
       <c r="E37" t="n">
-        <v>6080860809012227773993443734570227728384</v>
+        <v>490547460001343842762920559456375233782216278855825489920</v>
       </c>
       <c r="F37" t="n">
-        <v>9299874075375454113639477844050276515840</v>
+        <v>750227599231765641594401052422536190073579886948676272128</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>65198.7757235088</v>
       </c>
       <c r="C38" t="n">
-        <v>-35948248217709855937072733037708888244224</v>
+        <v>-11238328707852712458112862995062409793124800100881141858304</v>
       </c>
       <c r="D38" t="n">
-        <v>-54978101317426405612585784199186105761792</v>
+        <v>-17187540561002341437014822497583235505822424712440845434880</v>
       </c>
       <c r="E38" t="n">
-        <v>35948248217709855937072733037708888244224</v>
+        <v>11238328707852712458112862995062409793124800100881141858304</v>
       </c>
       <c r="F38" t="n">
-        <v>54978101317426405612585784199186105761792</v>
+        <v>17187540561002341437014822497583235505822424712440845434880</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>43331.9280419069</v>
       </c>
       <c r="C39" t="n">
-        <v>-341728420645608852946471431154966137405440</v>
+        <v>-212369204706778463986628828004880578293787648461277373661184</v>
       </c>
       <c r="D39" t="n">
-        <v>-522628519184495892432632143709388813631488</v>
+        <v>-324790670809893311311142047040481096564916353904078133133312</v>
       </c>
       <c r="E39" t="n">
-        <v>341728420645608852946471431154966137405440</v>
+        <v>212369204706778463986628828004880578293787648461277373661184</v>
       </c>
       <c r="F39" t="n">
-        <v>522628519184495892432632143709388813631488</v>
+        <v>324790670809893311311142047040481096564916353904078133133312</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>82468.1290881552</v>
       </c>
       <c r="C40" t="n">
-        <v>-10841052628274093580697952699527632110223360</v>
+        <v>-16578942912019168761685166445374138749319484360610361181732864</v>
       </c>
       <c r="D40" t="n">
-        <v>-16579959228477127820317600545343177196830720</v>
+        <v>-25355305149578318562216459668570358225246856368426292911013888</v>
       </c>
       <c r="E40" t="n">
-        <v>10841052628274093580697952699527632110223360</v>
+        <v>16578942912019168761685166445374138749319484360610361181732864</v>
       </c>
       <c r="F40" t="n">
-        <v>16579959228477127820317600545343177196830720</v>
+        <v>25355305149578318562216459668570358225246856368426292911013888</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>

--- a/outcome/appendix/data/Epidemic/HFMD.xlsx
+++ b/outcome/appendix/data/Epidemic/HFMD.xlsx
@@ -494,16 +494,16 @@
         <v>78852.1596192207</v>
       </c>
       <c r="C4" t="n">
-        <v>-140467.018350127</v>
+        <v>-65989.8900122636</v>
       </c>
       <c r="D4" t="n">
-        <v>-272621.228807436</v>
+        <v>-113313.936254694</v>
       </c>
       <c r="E4" t="n">
-        <v>358823.473871866</v>
+        <v>297905.677930427</v>
       </c>
       <c r="F4" t="n">
-        <v>490977.684329176</v>
+        <v>346789.301654904</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -526,16 +526,16 @@
         <v>181979.954122606</v>
       </c>
       <c r="C5" t="n">
-        <v>-23329152.826475</v>
+        <v>-4582526.53912444</v>
       </c>
       <c r="D5" t="n">
-        <v>-35819481.6428945</v>
+        <v>-7148990.8544689</v>
       </c>
       <c r="E5" t="n">
-        <v>23860432.7431741</v>
+        <v>5113806.45582355</v>
       </c>
       <c r="F5" t="n">
-        <v>36350761.5595936</v>
+        <v>7680270.77116801</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -558,16 +558,16 @@
         <v>307981.558251585</v>
       </c>
       <c r="C6" t="n">
-        <v>-1495730589.49844</v>
+        <v>-164694572.009674</v>
       </c>
       <c r="D6" t="n">
-        <v>-2287727512.39481</v>
+        <v>-252083589.40136</v>
       </c>
       <c r="E6" t="n">
-        <v>1496505012.40068</v>
+        <v>165468994.911911</v>
       </c>
       <c r="F6" t="n">
-        <v>2288501935.29704</v>
+        <v>252858012.303597</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -590,16 +590,16 @@
         <v>334364.218096093</v>
       </c>
       <c r="C7" t="n">
-        <v>-53373051014.8152</v>
+        <v>-3135989273.58038</v>
       </c>
       <c r="D7" t="n">
-        <v>-81627234961.664</v>
+        <v>-4796279150.61706</v>
       </c>
       <c r="E7" t="n">
-        <v>53373796939.075</v>
+        <v>3136735197.84024</v>
       </c>
       <c r="F7" t="n">
-        <v>81627980885.9239</v>
+        <v>4797025074.87693</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -622,16 +622,16 @@
         <v>288070.149698339</v>
       </c>
       <c r="C8" t="n">
-        <v>-1538768657621.18</v>
+        <v>-36931461439.3753</v>
       </c>
       <c r="D8" t="n">
-        <v>-2353343740703.75</v>
+        <v>-56481956677.0706</v>
       </c>
       <c r="E8" t="n">
-        <v>1538769263998.4</v>
+        <v>36932067816.5906</v>
       </c>
       <c r="F8" t="n">
-        <v>2353344347080.96</v>
+        <v>56482563054.2859</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -654,16 +654,16 @@
         <v>177333.081101109</v>
       </c>
       <c r="C9" t="n">
-        <v>-32031685190524.4</v>
+        <v>-217695560157.655</v>
       </c>
       <c r="D9" t="n">
-        <v>-48988235150907.6</v>
+        <v>-332936716972.214</v>
       </c>
       <c r="E9" t="n">
-        <v>32031685524715.7</v>
+        <v>217695894348.896</v>
       </c>
       <c r="F9" t="n">
-        <v>48988235485098.8</v>
+        <v>332937051163.455</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -686,16 +686,16 @@
         <v>178895.417506343</v>
       </c>
       <c r="C10" t="n">
-        <v>-1333025455726991</v>
+        <v>-2018085365820.55</v>
       </c>
       <c r="D10" t="n">
-        <v>-2038686506309717</v>
+        <v>-3086395317172.28</v>
       </c>
       <c r="E10" t="n">
-        <v>1333025456068600</v>
+        <v>2018085707430</v>
       </c>
       <c r="F10" t="n">
-        <v>2038686506651326</v>
+        <v>3086395658781.74</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -718,16 +718,16 @@
         <v>167908.613297202</v>
       </c>
       <c r="C11" t="n">
-        <v>-49282799307828352</v>
+        <v>-17082522575490.2</v>
       </c>
       <c r="D11" t="n">
-        <v>-75371537359661728</v>
+        <v>-26125463876753.8</v>
       </c>
       <c r="E11" t="n">
-        <v>49282799308178528</v>
+        <v>17082522925659.6</v>
       </c>
       <c r="F11" t="n">
-        <v>75371537360011904</v>
+        <v>26125464226923.3</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -750,16 +750,16 @@
         <v>136006.237763421</v>
       </c>
       <c r="C12" t="n">
-        <v>-1610771510204326400</v>
+        <v>-136405555098887</v>
       </c>
       <c r="D12" t="n">
-        <v>-2463462440531737088</v>
+        <v>-208614294244524</v>
       </c>
       <c r="E12" t="n">
-        <v>1610771510204618240</v>
+        <v>136405555390864</v>
       </c>
       <c r="F12" t="n">
-        <v>2463462440532028928</v>
+        <v>208614294536502</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -782,16 +782,16 @@
         <v>99284.5649700158</v>
       </c>
       <c r="C13" t="n">
-        <v>-45572992512937353216</v>
+        <v>-1129927187562564</v>
       </c>
       <c r="D13" t="n">
-        <v>-69697877474882002944</v>
+        <v>-1728074509358073</v>
       </c>
       <c r="E13" t="n">
-        <v>45572992512937566208</v>
+        <v>1129927187769806</v>
       </c>
       <c r="F13" t="n">
-        <v>69697877474882215936</v>
+        <v>1728074509565316</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -814,16 +814,16 @@
         <v>58922.1803726112</v>
       </c>
       <c r="C14" t="n">
-        <v>-1063038426732572442624</v>
+        <v>-7618687840764581</v>
       </c>
       <c r="D14" t="n">
-        <v>-1625776977372395864064</v>
+        <v>-11651777563116704</v>
       </c>
       <c r="E14" t="n">
-        <v>1063038426732572442624</v>
+        <v>7618687840876191</v>
       </c>
       <c r="F14" t="n">
-        <v>1625776977372395864064</v>
+        <v>11651777563228312</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -846,16 +846,16 @@
         <v>38422.6553661416</v>
       </c>
       <c r="C15" t="n">
-        <v>-22859285741611650121728</v>
+        <v>-59577841479199784</v>
       </c>
       <c r="D15" t="n">
-        <v>-34960260648450322857984</v>
+        <v>-91116445654895008</v>
       </c>
       <c r="E15" t="n">
-        <v>22859285741611650121728</v>
+        <v>59577841479265032</v>
       </c>
       <c r="F15" t="n">
-        <v>34960260648450322857984</v>
+        <v>91116445654960256</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -878,16 +878,16 @@
         <v>80573.4635270812</v>
       </c>
       <c r="C16" t="n">
-        <v>-3191020142043262831558656</v>
+        <v>-3510747451053496832</v>
       </c>
       <c r="D16" t="n">
-        <v>-4880244166912547707944960</v>
+        <v>-5369224889485145088</v>
       </c>
       <c r="E16" t="n">
-        <v>3191020142043262831558656</v>
+        <v>3510747451053715968</v>
       </c>
       <c r="F16" t="n">
-        <v>4880244166912547707944960</v>
+        <v>5369224889485364224</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -910,16 +910,16 @@
         <v>181769.626737185</v>
       </c>
       <c r="C17" t="n">
-        <v>-302612244870133334400827392</v>
+        <v>-92303315148741033984</v>
       </c>
       <c r="D17" t="n">
-        <v>-462805490760126215435059200</v>
+        <v>-141165738632065089536</v>
       </c>
       <c r="E17" t="n">
-        <v>302612244870133334400827392</v>
+        <v>92303315148741558272</v>
       </c>
       <c r="F17" t="n">
-        <v>462805490760126215435059200</v>
+        <v>141165738632065613824</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -942,16 +942,16 @@
         <v>296617.708893521</v>
       </c>
       <c r="C18" t="n">
-        <v>-19533509366296744399845982208</v>
+        <v>-1424255128650531471360</v>
       </c>
       <c r="D18" t="n">
-        <v>-29873924607433230216884912128</v>
+        <v>-2178210250763688476672</v>
       </c>
       <c r="E18" t="n">
-        <v>19533509366296744399845982208</v>
+        <v>1424255128650531995648</v>
       </c>
       <c r="F18" t="n">
-        <v>29873924607433230216884912128</v>
+        <v>2178210250763689000960</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -974,16 +974,16 @@
         <v>319793.831768466</v>
       </c>
       <c r="C19" t="n">
-        <v>-640747237028994893653865398272</v>
+        <v>-19882790989398091497472</v>
       </c>
       <c r="D19" t="n">
-        <v>-979938335323014300017769840640</v>
+        <v>-30408104752926959861760</v>
       </c>
       <c r="E19" t="n">
-        <v>640747237028994893653865398272</v>
+        <v>19882790989398091497472</v>
       </c>
       <c r="F19" t="n">
-        <v>979938335323014300017769840640</v>
+        <v>30408104752926959861760</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1006,16 +1006,16 @@
         <v>277318.332380656</v>
       </c>
       <c r="C20" t="n">
-        <v>-17625381644578679614402423947264</v>
+        <v>-123027017129205574926336</v>
       </c>
       <c r="D20" t="n">
-        <v>-26955695085486054480926751064064</v>
+        <v>-188153585998052791943168</v>
       </c>
       <c r="E20" t="n">
-        <v>17625381644578679614402423947264</v>
+        <v>123027017129205574926336</v>
       </c>
       <c r="F20" t="n">
-        <v>26955695085486054480926751064064</v>
+        <v>188153585998052791943168</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>174349.258358098</v>
       </c>
       <c r="C21" t="n">
-        <v>-289558668268388374456608558678016</v>
+        <v>-211900720638101584609280</v>
       </c>
       <c r="D21" t="n">
-        <v>-442841768115862108341218771468288</v>
+        <v>-324074186255838490918912</v>
       </c>
       <c r="E21" t="n">
-        <v>289558668268388374456608558678016</v>
+        <v>211900720638101584609280</v>
       </c>
       <c r="F21" t="n">
-        <v>442841768115862108341218771468288</v>
+        <v>324074186255838490918912</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1070,16 +1070,16 @@
         <v>176275.981840536</v>
       </c>
       <c r="C22" t="n">
-        <v>-9999072529142810508166967758684160</v>
+        <v>-1955540409863661418446848</v>
       </c>
       <c r="D22" t="n">
-        <v>-15292261788619921797779138782691328</v>
+        <v>-2990740971095229982572544</v>
       </c>
       <c r="E22" t="n">
-        <v>9999072529142810508166967758684160</v>
+        <v>1955540409863661418446848</v>
       </c>
       <c r="F22" t="n">
-        <v>15292261788619921797779138782691328</v>
+        <v>2990740971095229982572544</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1102,16 +1102,16 @@
         <v>163956.977078498</v>
       </c>
       <c r="C23" t="n">
-        <v>-367926799118312251119425009154523136</v>
+        <v>-7492950052875102138138624</v>
       </c>
       <c r="D23" t="n">
-        <v>-562695481482675178356129182659903488</v>
+        <v>-11459478210969879659413504</v>
       </c>
       <c r="E23" t="n">
-        <v>367926799118312251119425009154523136</v>
+        <v>7492950052875102138138624</v>
       </c>
       <c r="F23" t="n">
-        <v>562695481482675178356129182659903488</v>
+        <v>11459478210969879659413504</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1134,16 +1134,16 @@
         <v>134096.506889422</v>
       </c>
       <c r="C24" t="n">
-        <v>-10738814686869281584081357074696503296</v>
+        <v>-50900814014913095562952704</v>
       </c>
       <c r="D24" t="n">
-        <v>-16423599790125702164273196422888685568</v>
+        <v>-77846077313795995121745920</v>
       </c>
       <c r="E24" t="n">
-        <v>10738814686869281584081357074696503296</v>
+        <v>50900814014913095562952704</v>
       </c>
       <c r="F24" t="n">
-        <v>16423599790125702164273196422888685568</v>
+        <v>77846077313795995121745920</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1166,16 +1166,16 @@
         <v>99205.9367119199</v>
       </c>
       <c r="C25" t="n">
-        <v>-281989967437087624487508153774624473088</v>
+        <v>-267688491383489764603723776</v>
       </c>
       <c r="D25" t="n">
-        <v>-431266439086628745164362842854039486464</v>
+        <v>-409394218924420743001276416</v>
       </c>
       <c r="E25" t="n">
-        <v>281989967437087624487508153774624473088</v>
+        <v>267688491383489764603723776</v>
       </c>
       <c r="F25" t="n">
-        <v>431266439086628745164362842854039486464</v>
+        <v>409394218924420743001276416</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1198,16 +1198,16 @@
         <v>59999.8495151354</v>
       </c>
       <c r="C26" t="n">
-        <v>-6033691692917982115584975402403874471936</v>
+        <v>-3798298332012455521895317504</v>
       </c>
       <c r="D26" t="n">
-        <v>-9227735137534102519027992620864012025856</v>
+        <v>-5808996011892340809221013504</v>
       </c>
       <c r="E26" t="n">
-        <v>6033691692917982115584975402403874471936</v>
+        <v>3798298332012455521895317504</v>
       </c>
       <c r="F26" t="n">
-        <v>9227735137534102519027992620864012025856</v>
+        <v>5808996011892340809221013504</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1230,16 +1230,16 @@
         <v>39592.0014006528</v>
       </c>
       <c r="C27" t="n">
-        <v>-97771527436915863681940697286060084822016</v>
+        <v>-56496680761477166749301342208</v>
       </c>
       <c r="D27" t="n">
-        <v>-149528647650156316361254273873762366521344</v>
+        <v>-86404216978578144373728346112</v>
       </c>
       <c r="E27" t="n">
-        <v>97771527436915863681940697286060084822016</v>
+        <v>56496680761477166749301342208</v>
       </c>
       <c r="F27" t="n">
-        <v>149528647650156316361254273873762366521344</v>
+        <v>86404216978578144373728346112</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1262,16 +1262,16 @@
         <v>80532.3974181003</v>
       </c>
       <c r="C28" t="n">
-        <v>-11100929194567569882327170891119433919496192</v>
+        <v>-3510788078359082693435932540928</v>
       </c>
       <c r="D28" t="n">
-        <v>-16977406138968551063692776889935876126146560</v>
+        <v>-5369287023587121941899825381376</v>
       </c>
       <c r="E28" t="n">
-        <v>11100929194567569882327170891119433919496192</v>
+        <v>3510788078359082693435932540928</v>
       </c>
       <c r="F28" t="n">
-        <v>16977406138968551063692776889935876126146560</v>
+        <v>5369287023587121941899825381376</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1294,16 +1294,16 @@
         <v>180906.050697436</v>
       </c>
       <c r="C29" t="n">
-        <v>-1090167055167438182193928082397177111652597760</v>
+        <v>-68646344016596019595657714073600</v>
       </c>
       <c r="D29" t="n">
-        <v>-1667266634216371948447747674696123483315765248</v>
+        <v>-104985523454688013534209683488768</v>
       </c>
       <c r="E29" t="n">
-        <v>1090167055167438182193928082397177111652597760</v>
+        <v>68646344016596019595657714073600</v>
       </c>
       <c r="F29" t="n">
-        <v>1667266634216371948447747674696123483315765248</v>
+        <v>104985523454688013534209683488768</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1326,16 +1326,16 @@
         <v>296362.911669027</v>
       </c>
       <c r="C30" t="n">
-        <v>-67571130503274290736666467173380239512389550080</v>
+        <v>-971516363818411705926155835015168</v>
       </c>
       <c r="D30" t="n">
-        <v>-103341126289205379122623998564915319933245587456</v>
+        <v>-1485806060926021133579936396738560</v>
       </c>
       <c r="E30" t="n">
-        <v>67571130503274290736666467173380239512389550080</v>
+        <v>971516363818411705926155835015168</v>
       </c>
       <c r="F30" t="n">
-        <v>103341126289205379122623998564915319933245587456</v>
+        <v>1485806060926021133579936396738560</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>316745.837651885</v>
       </c>
       <c r="C31" t="n">
-        <v>-1986980535786559234378396282201854927337328476160</v>
+        <v>-9652176975403372029600599424106496</v>
       </c>
       <c r="D31" t="n">
-        <v>-3038824494329894459884238921391152551757348864000</v>
+        <v>-14761730821309643375838662508937216</v>
       </c>
       <c r="E31" t="n">
-        <v>1986980535786559234378396282201854927337328476160</v>
+        <v>9652176975403372029600599424106496</v>
       </c>
       <c r="F31" t="n">
-        <v>3038824494329894459884238921391152551757348864000</v>
+        <v>14761730821309643375838662508937216</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1390,16 +1390,16 @@
         <v>271527.292643191</v>
       </c>
       <c r="C32" t="n">
-        <v>-40946373580708513090611971314587609438439895728128</v>
+        <v>-43826591180547271265208620516638720</v>
       </c>
       <c r="D32" t="n">
-        <v>-62622074423987006450683469413619592260024316985344</v>
+        <v>-67026987121295013006532546012381184</v>
       </c>
       <c r="E32" t="n">
-        <v>40946373580708513090611971314587609438439895728128</v>
+        <v>43826591180547271265208620516638720</v>
       </c>
       <c r="F32" t="n">
-        <v>62622074423987006450683469413619592260024316985344</v>
+        <v>67026987121295013006532546012381184</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1422,16 +1422,16 @@
         <v>171569.032871392</v>
       </c>
       <c r="C33" t="n">
-        <v>-635394832865923943424498420728621493861222902136832</v>
+        <v>-177132585059878873352991694246641664</v>
       </c>
       <c r="D33" t="n">
-        <v>-971752539548293941676574011943680491765935128969216</v>
+        <v>-270900911473123119977607167968542720</v>
       </c>
       <c r="E33" t="n">
-        <v>635394832865923943424498420728621493861222902136832</v>
+        <v>177132585059878873352991694246641664</v>
       </c>
       <c r="F33" t="n">
-        <v>971752539548293941676574011943680491765935128969216</v>
+        <v>270900911473123119977607167968542720</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1454,16 +1454,16 @@
         <v>176404.996205268</v>
       </c>
       <c r="C34" t="n">
-        <v>-21994635156669767824354456058681885208242764443025408</v>
+        <v>-1148234671426637444276653644939526144</v>
       </c>
       <c r="D34" t="n">
-        <v>-33637891692521954160676193001504969473362448527392768</v>
+        <v>-1756073389711816241272403176280031232</v>
       </c>
       <c r="E34" t="n">
-        <v>21994635156669767824354456058681885208242764443025408</v>
+        <v>1148234671426637444276653644939526144</v>
       </c>
       <c r="F34" t="n">
-        <v>33637891692521954160676193001504969473362448527392768</v>
+        <v>1756073389711816241272403176280031232</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1486,16 +1486,16 @@
         <v>167179.537079991</v>
       </c>
       <c r="C35" t="n">
-        <v>-605830707390710025419310808782252584357375009290715136</v>
+        <v>-3395371083304086024239377598619058176</v>
       </c>
       <c r="D35" t="n">
-        <v>-926538111409994004080595073764380730897486952517337088</v>
+        <v>-5192771962005889163314238944083705856</v>
       </c>
       <c r="E35" t="n">
-        <v>605830707390710025419310808782252584357375009290715136</v>
+        <v>3395371083304086024239377598619058176</v>
       </c>
       <c r="F35" t="n">
-        <v>926538111409994004080595073764380730897486952517337088</v>
+        <v>5192771962005889163314238944083705856</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1518,16 +1518,16 @@
         <v>138553.161796966</v>
       </c>
       <c r="C36" t="n">
-        <v>-23946360154934498820242788237340410553834259151650291712</v>
+        <v>-31738718042627063525742703736636047360</v>
       </c>
       <c r="D36" t="n">
-        <v>-36622797495122091495286530892214691207747730794977689600</v>
+        <v>-48540180474584037221489227309976125440</v>
       </c>
       <c r="E36" t="n">
-        <v>23946360154934498820242788237340410553834259151650291712</v>
+        <v>31738718042627063525742703736636047360</v>
       </c>
       <c r="F36" t="n">
-        <v>36622797495122091495286530892214691207747730794977689600</v>
+        <v>48540180474584037221489227309976125440</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1550,16 +1550,16 @@
         <v>104766.96074782</v>
       </c>
       <c r="C37" t="n">
-        <v>-490547460001343842762920559456375233782216278855825489920</v>
+        <v>-167783837345194140686634776984094244864</v>
       </c>
       <c r="D37" t="n">
-        <v>-750227599231765641594401052422536190073579886948676272128</v>
+        <v>-256603235660486824210286045644785188864</v>
       </c>
       <c r="E37" t="n">
-        <v>490547460001343842762920559456375233782216278855825489920</v>
+        <v>167783837345194140686634776984094244864</v>
       </c>
       <c r="F37" t="n">
-        <v>750227599231765641594401052422536190073579886948676272128</v>
+        <v>256603235660486824210286045644785188864</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1582,16 +1582,16 @@
         <v>65198.7757235088</v>
       </c>
       <c r="C38" t="n">
-        <v>-11238328707852712458112862995062409793124800100881141858304</v>
+        <v>-708994583697721355540217614264812175360</v>
       </c>
       <c r="D38" t="n">
-        <v>-17187540561002341437014822497583235505822424712440845434880</v>
+        <v>-1084313644992493545144236543218624233472</v>
       </c>
       <c r="E38" t="n">
-        <v>11238328707852712458112862995062409793124800100881141858304</v>
+        <v>708994583697721355540217614264812175360</v>
       </c>
       <c r="F38" t="n">
-        <v>17187540561002341437014822497583235505822424712440845434880</v>
+        <v>1084313644992493545144236543218624233472</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1614,16 +1614,16 @@
         <v>43331.9280419069</v>
       </c>
       <c r="C39" t="n">
-        <v>-212369204706778463986628828004880578293787648461277373661184</v>
+        <v>-13489612197994482408427288678821391237120</v>
       </c>
       <c r="D39" t="n">
-        <v>-324790670809893311311142047040481096564916353904078133133312</v>
+        <v>-20630581542183945020318019647869133258752</v>
       </c>
       <c r="E39" t="n">
-        <v>212369204706778463986628828004880578293787648461277373661184</v>
+        <v>13489612197994482408427288678821391237120</v>
       </c>
       <c r="F39" t="n">
-        <v>324790670809893311311142047040481096564916353904078133133312</v>
+        <v>20630581542183945020318019647869133258752</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1646,16 +1646,16 @@
         <v>82468.1290881552</v>
       </c>
       <c r="C40" t="n">
-        <v>-16578942912019168761685166445374138749319484360610361181732864</v>
+        <v>-882558621779350216999103158358090379689984</v>
       </c>
       <c r="D40" t="n">
-        <v>-25355305149578318562216459668570358225246856368426292911013888</v>
+        <v>-1349756934827475986212792713356669238640640</v>
       </c>
       <c r="E40" t="n">
-        <v>16578942912019168761685166445374138749319484360610361181732864</v>
+        <v>882558621779350216999103158358090379689984</v>
       </c>
       <c r="F40" t="n">
-        <v>25355305149578318562216459668570358225246856368426292911013888</v>
+        <v>1349756934827475986212792713356669238640640</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
